--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_18_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_18_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60111.34937536231</v>
+        <v>11962158.52569709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60111.34937536231</v>
+        <v>11962158.52569709</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4989.514494590213</v>
+        <v>675119.0930680436</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4989.514494590213</v>
+        <v>675119.0930680436</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266007217.660344</v>
+        <v>51998905.08779366</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10753.03592330977</v>
+        <v>1199349.041857846</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20462.33926127549</v>
+        <v>2236852.038947823</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30171.6425992412</v>
+        <v>3274355.036037801</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39969.87577992052</v>
+        <v>4318163.407039465</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49743.87623332712</v>
+        <v>5357149.465313857</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59517.8766867337</v>
+        <v>6396135.523588248</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69291.87714014029</v>
+        <v>7435121.581862634</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79065.87759354687</v>
+        <v>8474107.64013702</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88751.70190409719</v>
+        <v>9507153.717232617</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98461.04621464746</v>
+        <v>10544880.27432821</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>108170.3905251977</v>
+        <v>11582606.83142381</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>117777.7491565248</v>
+        <v>12614838.92123215</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>127409.3405151247</v>
+        <v>13651893.32376775</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>137735.6549878638</v>
+        <v>14585530.23096952</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>148061.9694606029</v>
+        <v>15519167.13817129</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>391</v>
@@ -27055,16 +27055,16 @@
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>359</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
